--- a/doc/check list/CheckList.xlsx
+++ b/doc/check list/CheckList.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7DDC38A0-0698-4D6D-A012-2E64101A7B26}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>CHECK LIST</t>
   </si>
@@ -55,9 +54,6 @@
     <t>high</t>
   </si>
   <si>
-    <t>Vo Gia Huy</t>
-  </si>
-  <si>
     <t>Screen Layout</t>
   </si>
   <si>
@@ -71,12 +67,18 @@
   </si>
   <si>
     <t>Coding</t>
+  </si>
+  <si>
+    <t>Hoang Viet Anh</t>
+  </si>
+  <si>
+    <t>Dao Vinh Phat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -193,20 +195,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,18 +482,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,19 +502,21 @@
     <col min="2" max="2" width="30.88671875" customWidth="1"/>
     <col min="3" max="3" width="19.77734375" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -534,7 +538,7 @@
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1"/>
@@ -551,11 +555,11 @@
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="8" t="s">
-        <v>11</v>
+      <c r="G3" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -564,18 +568,18 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="8" t="s">
-        <v>11</v>
+      <c r="G4" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -584,18 +588,18 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="8" t="s">
-        <v>11</v>
+      <c r="G5" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -604,18 +608,18 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="8" t="s">
-        <v>11</v>
+      <c r="G6" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -624,18 +628,18 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="8" t="s">
-        <v>11</v>
+      <c r="G7" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -644,18 +648,18 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="9" t="s">
-        <v>11</v>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="H8" s="1"/>
     </row>
